--- a/AutoMng/Bug Tracker.xlsx
+++ b/AutoMng/Bug Tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>در قسمت رانندگان نام راننده، شماره پرسنلی، و نام رده وارد شود. نیازی به فیلد درجه نیست</t>
   </si>
@@ -152,6 +152,12 @@
   <si>
     <t xml:space="preserve">فرمول نحوه محاسبه میزان هزینه تعمیر و نگهداری خودرو به هزینه خرید آن چگونه است.
 </t>
+  </si>
+  <si>
+    <t>هشدار درباره خودروهایی که بر اساس میزان مسافت طی شده و تاریخ آخرین سرویس نیاز به سرویس مجدد دارند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرویس در قالب تعمیر می باشد ؟ </t>
   </si>
 </sst>
 </file>
@@ -375,17 +381,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -582,8 +588,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:E57" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A4:E57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:E56" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A4:E56"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ردیف" dataDxfId="4"/>
     <tableColumn id="9" name="وضعیت" dataDxfId="3"/>
@@ -850,7 +856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -861,10 +867,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -878,22 +884,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" ht="49.5" customHeight="1"/>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="29.25">
@@ -1298,10 +1304,10 @@
       <c r="C35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="35" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1347,7 +1353,12 @@
     <row r="39" spans="1:5">
       <c r="A39" s="20"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="20"/>
@@ -1433,11 +1444,6 @@
       <c r="A56" s="20"/>
       <c r="C56" s="8"/>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="20"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
